--- a/Datos_Tarea_5.xlsx
+++ b/Datos_Tarea_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helde\Desktop\Carpeta de Heldert\Cosas serias\Universidad\2022-I\Análisis Numérico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B60D5F-892D-4C25-BAAF-59DE726E6737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D77756-C91F-4B67-BDCA-F3F79309AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="1725" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>632</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44562</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>633</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44563</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>634</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>44564</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>635</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>44565</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>636</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>44566</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>637</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>44567</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>638</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>44568</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>639</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>44569</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>640</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44570</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>641</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>44571</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>642</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>44572</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>643</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>44573</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>644</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>44574</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>645</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>44575</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>646</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>44576</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>647</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>44577</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>648</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>44578</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>649</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>44579</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>650</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>44580</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>651</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>44581</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>652</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>44582</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>653</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>44583</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>654</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>44584</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>655</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>44585</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>656</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>44586</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>657</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>44587</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>658</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>44588</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>659</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>44589</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>660</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>44590</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>661</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>44591</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>662</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>44592</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>663</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>44593</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>664</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>44594</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>665</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>44595</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>666</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>44596</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>667</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>44597</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>668</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>44598</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>669</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>44599</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>670</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>44600</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>671</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>44601</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>672</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>44602</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>673</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>44603</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>674</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>44604</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>675</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>44605</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>676</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>44606</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>677</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>44607</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>678</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>44608</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>679</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>44609</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>680</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>44610</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>681</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>44611</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>682</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>44612</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>683</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>44613</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>684</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>44614</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>685</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>44615</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>686</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>44616</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>687</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>44617</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>688</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>44618</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>689</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>44619</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>690</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>44620</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>691</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>44621</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>692</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>44622</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>693</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>44623</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>44624</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>695</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>44625</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>696</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>44626</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>697</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>44627</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>698</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>44628</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>699</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>44629</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>700</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>44630</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>701</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>44631</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>702</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>44632</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>703</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>44633</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>704</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>44634</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>705</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>44635</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>44636</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>707</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>44637</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>708</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>44638</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>709</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>44639</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>710</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>44640</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>711</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>44641</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>712</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>44642</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>713</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>44643</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>714</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>44644</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>715</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>44645</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>716</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>44646</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>717</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>44647</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>718</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>44648</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>719</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>44649</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>720</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>44650</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>721</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>44651</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>722</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>44652</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>723</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>44653</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>724</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>44654</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>725</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>44655</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>726</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>44656</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>727</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>44657</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>728</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>44658</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>729</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>44659</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>730</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>44660</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>731</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>44661</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>732</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>44662</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>733</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1">
         <v>44663</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>734</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>44664</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>735</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1">
         <v>44665</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>736</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>44666</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>737</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>44667</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>738</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>44668</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>739</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>44669</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>740</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>44670</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>741</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1">
         <v>44671</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>742</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>44672</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>743</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>44673</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>744</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>44674</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>745</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>44675</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>746</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>44676</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>747</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
         <v>44677</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>748</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
         <v>44678</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>749</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
         <v>44679</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>750</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
         <v>44680</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>751</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>44681</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>752</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>44682</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>753</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1">
         <v>44686</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>754</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1">
         <v>44693</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>755</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>44700</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>756</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>44707</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>757</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
         <v>44714</v>
